--- a/AEM/content-Docs/Online site asset consolidation - IN.xlsx
+++ b/AEM/content-Docs/Online site asset consolidation - IN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\November\16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dell\AEM\content-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -912,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -946,6 +946,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,7 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1408,169 +1417,169 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>2150</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>3010</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3020</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>3040</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -1585,57 +1594,57 @@
       <c r="M5" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>3050</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="8" t="s">
         <v>178</v>
       </c>
     </row>
